--- a/working/rego/reprod.dros.xlsx
+++ b/working/rego/reprod.dros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/rego/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EAB1F5-A6A7-1447-9387-7B2741E095FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C89214-3E98-1640-9659-03B201C7D95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38740" yWindow="1800" windowWidth="27640" windowHeight="16940" xr2:uid="{F97CD854-C626-4841-A715-78692AE39749}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{F97CD854-C626-4841-A715-78692AE39749}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>cross</t>
   </si>
@@ -77,13 +77,7 @@
     <t>dam</t>
   </si>
   <si>
-    <t>d mad</t>
-  </si>
-  <si>
-    <t>d sub</t>
-  </si>
-  <si>
-    <t>are F2 and rF2 parents right?</t>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -435,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2620DDE5-5848-FB49-BA52-19ECF8693EC5}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H1" sqref="H1:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -476,6 +470,9 @@
       <c r="C2">
         <v>0.87500000000000011</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -485,11 +482,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -499,6 +493,9 @@
       <c r="C3">
         <v>0.87500000000000011</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -508,11 +505,8 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -522,6 +516,9 @@
       <c r="C4">
         <v>0.9375</v>
       </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -532,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -542,6 +539,9 @@
       <c r="C5">
         <v>0.953125</v>
       </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -552,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -562,6 +562,9 @@
       <c r="C6">
         <v>0.87500000000000011</v>
       </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -572,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -582,6 +585,9 @@
       <c r="C7">
         <v>1.5625</v>
       </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -590,9 +596,6 @@
       </c>
       <c r="G7">
         <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
